--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43371</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43007</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42279</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41915</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41544</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41180</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E8" s="3">
         <v>499700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>570400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>698800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>544300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>420600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>339200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>242700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>303300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>310300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E9" s="3">
         <v>279000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>324700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>371900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>262700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>217000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>196800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>133500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>336500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E10" s="3">
         <v>220700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>245700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>326900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>281600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>203600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>142300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-33200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>131900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +840,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E12" s="3">
         <v>163500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>177700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>148000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>107700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>66900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>72600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>284500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>36200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E15" s="3">
         <v>44900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>48300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1300</v>
       </c>
       <c r="K15" s="3">
         <v>1300</v>
       </c>
       <c r="L15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>526600</v>
+      </c>
+      <c r="E17" s="3">
         <v>880100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>676900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>714900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>531100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>410500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>367000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>235000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>264400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-380400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-106500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-282900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>67400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E22" s="3">
         <v>35800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>18400</v>
       </c>
       <c r="H22" s="3">
         <v>18400</v>
       </c>
       <c r="I22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-423200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-155200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-39400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-383800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-131200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-150400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-383800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-158800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-150400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-82200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,32 +1419,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-8800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-19100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>5000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>54100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>15500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>800</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1447,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-383800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-167600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-169500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-81500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1546,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-383800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-167600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-169500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-81500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43371</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43007</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42279</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41915</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41544</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41180</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1648,61 +1734,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E41" s="3">
         <v>75500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>333000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E42" s="3">
         <v>101200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>84100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>35</v>
@@ -1713,152 +1803,167 @@
       <c r="L42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E43" s="3">
         <v>86500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>115000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>154600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>99800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>128000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E44" s="3">
         <v>107900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>136100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>79900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>73600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>52500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>27500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>50700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E46" s="3">
         <v>398600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>458900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>562900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>612900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>384200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>373300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>246400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>213000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>156500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E47" s="3">
         <v>23600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>35</v>
@@ -1875,78 +1980,87 @@
       <c r="K47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E48" s="3">
         <v>132600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>149900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>131000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>99200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>83800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>445900</v>
+      </c>
+      <c r="E49" s="3">
         <v>496000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>826900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>934900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>379600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>337000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>153400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E52" s="3">
         <v>54800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>96800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>105100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1146400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1105600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1482500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1637100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1188600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>860800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>682200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>316600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>268100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>211300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E57" s="3">
         <v>24800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E58" s="3">
         <v>8000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>108700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E60" s="3">
         <v>74800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>117100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>681200</v>
+      </c>
+      <c r="E61" s="3">
         <v>684800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>687400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>678700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>576300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>335100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>343200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E62" s="3">
         <v>32100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>57300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>107000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>846300</v>
+      </c>
+      <c r="E66" s="3">
         <v>791700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>813800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>859700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>725800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>436300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>453700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>174100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,11 +2749,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>182000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-839700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-791800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-97500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-98900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-147500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-132200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-147700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-144700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E76" s="3">
         <v>313900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>668700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>777400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>462800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>424500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>247100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>199500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-144800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43371</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43007</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42279</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41915</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41544</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41180</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-383800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-167600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-169500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-81500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E83" s="3">
         <v>104400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>112400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>171400</v>
+      </c>
+      <c r="E89" s="3">
         <v>20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-337600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-94900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-207400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-264200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3321,14 +3555,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-79100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,62 +3668,68 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>227400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>122400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>302400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>35</v>
@@ -3491,40 +3740,46 @@
       <c r="L101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-202900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>210700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>63400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>MTSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43371</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43007</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42279</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41915</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41544</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41180</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>606900</v>
+      </c>
+      <c r="E8" s="3">
         <v>530000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>499700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>570400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>698800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>544300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>420600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>339200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>242700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>303300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>310300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>265100</v>
+      </c>
+      <c r="E9" s="3">
         <v>259900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>279000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>324700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>371900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>262700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>217000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>196800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>133500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>336500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E10" s="3">
         <v>270200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>220700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>245700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>326900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>281600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>203600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>142300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-33200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E12" s="3">
         <v>141300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>163500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>177700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>148000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>107700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>82200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>66900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>72600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,81 +928,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>284500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>36200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E15" s="3">
         <v>32900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>48300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1300</v>
       </c>
       <c r="L15" s="3">
         <v>1300</v>
       </c>
       <c r="M15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>530300</v>
+      </c>
+      <c r="E17" s="3">
         <v>526600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>880100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>676900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>714900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>531100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>410500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>367000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>235000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>249600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>264400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-380400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-106500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1086,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E21" s="3">
         <v>64600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-282900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>67400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E22" s="3">
         <v>27400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>18400</v>
       </c>
       <c r="I22" s="3">
         <v>18400</v>
       </c>
       <c r="J22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-423200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-155200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-49500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-39400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-46100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-383800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-131200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-150400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-46100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-383800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-158800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-150400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-82200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1409,45 +1466,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-8800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-19100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>54100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>15500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>800</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1517,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E32" s="3">
         <v>17600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-46100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-383800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-167600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-169500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-81500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-46100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-383800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-167600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-169500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-81500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43371</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43007</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42279</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41915</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41544</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41180</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1735,67 +1820,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E41" s="3">
         <v>129400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>94700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>333000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E42" s="3">
         <v>203700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>101200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>98200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>84100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>23800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>35</v>
@@ -1806,167 +1895,182 @@
       <c r="M42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E43" s="3">
         <v>47100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>115000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>154600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>99800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>128000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E44" s="3">
         <v>91600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>107900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>136100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>79900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>73600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>54900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>52500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>50700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521500</v>
+      </c>
+      <c r="E46" s="3">
         <v>481500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>398600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>458900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>562900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>612900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>384200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>373300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>246400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>213000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>156500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E47" s="3">
         <v>17700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>35</v>
@@ -1983,84 +2087,93 @@
       <c r="L47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E48" s="3">
         <v>152200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>149900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>131000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>99200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>83800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E49" s="3">
         <v>445900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>496000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>826900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>934900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>379600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>337000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>153400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E52" s="3">
         <v>49100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>96800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>105100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1134100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1146400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1105600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1482500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1637100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1188600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>860800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>682200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>316600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>268100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>211300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,224 +2400,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E57" s="3">
         <v>23000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E59" s="3">
         <v>63700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>108700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E60" s="3">
         <v>95000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>528900</v>
+      </c>
+      <c r="E61" s="3">
         <v>681200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>684800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>687400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>678700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>576300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>335100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>343200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E62" s="3">
         <v>70200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>57300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>107000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>662400</v>
+      </c>
+      <c r="E66" s="3">
         <v>846300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>791700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>813800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>859700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>725800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>436300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>453700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>174100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,11 +2919,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>182000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-801800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-839700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-791800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-408000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-97500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-98900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-147500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-132200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-147700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-144700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>471700</v>
+      </c>
+      <c r="E76" s="3">
         <v>300100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>313900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>668700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>777400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>462800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>424500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>247100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>199500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-144800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43371</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43007</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42279</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41915</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41544</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41180</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-46100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-383800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-167600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-169500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-81500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
         <v>78800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>104400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E89" s="3">
         <v>171400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-53000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-107200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-337600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-94900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-207400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-264200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,8 +3760,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3558,14 +3791,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-79100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,45 +3913,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>227400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>122400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>302400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3717,22 +3965,22 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>35</v>
@@ -3743,43 +3991,49 @@
       <c r="M101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E102" s="3">
         <v>53900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-202900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>210700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>63400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>MTSI</t>
   </si>
@@ -1164,25 +1164,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>133500</v>
+        <v>142400</v>
       </c>
       <c r="E21" s="3">
-        <v>64600</v>
+        <v>90200</v>
       </c>
       <c r="F21" s="3">
-        <v>-282900</v>
+        <v>-275000</v>
       </c>
       <c r="G21" s="3">
-        <v>-11500</v>
+        <v>-30900</v>
       </c>
       <c r="H21" s="3">
-        <v>72300</v>
+        <v>49900</v>
       </c>
       <c r="I21" s="3">
-        <v>67400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>57700</v>
+        <v>51600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K21" s="3">
         <v>24100</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70000</v>
+        <v>78800</v>
       </c>
       <c r="E83" s="3">
-        <v>78800</v>
+        <v>104400</v>
       </c>
       <c r="F83" s="3">
-        <v>104400</v>
+        <v>112400</v>
       </c>
       <c r="G83" s="3">
-        <v>112400</v>
+        <v>93000</v>
       </c>
       <c r="H83" s="3">
-        <v>93000</v>
+        <v>70600</v>
       </c>
       <c r="I83" s="3">
-        <v>70600</v>
-      </c>
-      <c r="J83" s="3">
         <v>54700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K83" s="3">
         <v>52700</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>148400</v>
+        <v>171400</v>
       </c>
       <c r="E89" s="3">
-        <v>171400</v>
+        <v>20700</v>
       </c>
       <c r="F89" s="3">
-        <v>20700</v>
+        <v>36300</v>
       </c>
       <c r="G89" s="3">
-        <v>36300</v>
+        <v>61100</v>
       </c>
       <c r="H89" s="3">
-        <v>61100</v>
+        <v>79200</v>
       </c>
       <c r="I89" s="3">
-        <v>79200</v>
+        <v>33700</v>
       </c>
       <c r="J89" s="3">
-        <v>33700</v>
+        <v>25300</v>
       </c>
       <c r="K89" s="3">
         <v>25300</v>
@@ -3594,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18000</v>
+        <v>-17600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17600</v>
+        <v>-38000</v>
       </c>
       <c r="F91" s="3">
-        <v>-38000</v>
+        <v>-53000</v>
       </c>
       <c r="G91" s="3">
-        <v>-53000</v>
+        <v>-32800</v>
       </c>
       <c r="H91" s="3">
-        <v>-32800</v>
+        <v>-31300</v>
       </c>
       <c r="I91" s="3">
-        <v>-31300</v>
+        <v>-38300</v>
       </c>
       <c r="J91" s="3">
-        <v>-38300</v>
+        <v>-17000</v>
       </c>
       <c r="K91" s="3">
         <v>-17000</v>
@@ -3711,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2600</v>
+        <v>-107200</v>
       </c>
       <c r="E94" s="3">
-        <v>-107200</v>
+        <v>-33900</v>
       </c>
       <c r="F94" s="3">
-        <v>-33900</v>
+        <v>-67100</v>
       </c>
       <c r="G94" s="3">
-        <v>-67100</v>
+        <v>-337600</v>
       </c>
       <c r="H94" s="3">
-        <v>-337600</v>
+        <v>-94900</v>
       </c>
       <c r="I94" s="3">
-        <v>-94900</v>
-      </c>
-      <c r="J94" s="3">
         <v>-207400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K94" s="3">
         <v>-264200</v>
@@ -3923,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-119100</v>
+        <v>-10700</v>
       </c>
       <c r="E100" s="3">
-        <v>-10700</v>
+        <v>-5800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5800</v>
+        <v>-4500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4500</v>
+        <v>73700</v>
       </c>
       <c r="H100" s="3">
-        <v>73700</v>
+        <v>227400</v>
       </c>
       <c r="I100" s="3">
-        <v>227400</v>
-      </c>
-      <c r="J100" s="3">
         <v>122400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K100" s="3">
         <v>302400</v>
@@ -3965,22 +3965,22 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-200</v>
+      <c r="J101" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>35</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27100</v>
+        <v>53900</v>
       </c>
       <c r="E102" s="3">
-        <v>53900</v>
+        <v>-19200</v>
       </c>
       <c r="F102" s="3">
-        <v>-19200</v>
+        <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>-35400</v>
+        <v>-202900</v>
       </c>
       <c r="H102" s="3">
-        <v>-202900</v>
+        <v>210700</v>
       </c>
       <c r="I102" s="3">
-        <v>210700</v>
+        <v>-51600</v>
       </c>
       <c r="J102" s="3">
-        <v>-51600</v>
+        <v>63400</v>
       </c>
       <c r="K102" s="3">
         <v>63400</v>

--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>MTSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43371</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43007</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42279</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41915</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41544</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41180</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>675200</v>
+      </c>
+      <c r="E8" s="3">
         <v>606900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>530000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>499700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>570400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>698800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>544300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>420600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>339200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>242700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>303300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>310300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E9" s="3">
         <v>265100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>259900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>279000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>324700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>371900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>262700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>217000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>196800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>133500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>336500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>406200</v>
+      </c>
+      <c r="E10" s="3">
         <v>341900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>270200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>220700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>245700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>326900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>281600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>203600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>109200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-33200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E12" s="3">
         <v>138800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>141300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>163500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>177700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>148000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>107700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>82200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>66900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>72600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36100</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>284500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E15" s="3">
         <v>30900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>48300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1300</v>
       </c>
       <c r="M15" s="3">
         <v>1300</v>
       </c>
       <c r="N15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>542500</v>
+      </c>
+      <c r="E17" s="3">
         <v>530300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>526600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>880100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>676900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>714900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>531100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>410500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>367000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>235000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>249600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>264400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E18" s="3">
         <v>76600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-380400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-106500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>142400</v>
+        <v>304600</v>
       </c>
       <c r="E21" s="3">
-        <v>90200</v>
+        <v>133500</v>
       </c>
       <c r="F21" s="3">
-        <v>-275000</v>
+        <v>64600</v>
       </c>
       <c r="G21" s="3">
-        <v>-30900</v>
+        <v>-282900</v>
       </c>
       <c r="H21" s="3">
-        <v>49900</v>
+        <v>-11500</v>
       </c>
       <c r="I21" s="3">
-        <v>51600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>72300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
         <v>20600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>18400</v>
       </c>
       <c r="J22" s="3">
         <v>18400</v>
       </c>
       <c r="K22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E23" s="3">
         <v>42900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-423200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-155200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-196800</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-39400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-24100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1352,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E26" s="3">
         <v>38000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-46100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-383800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-131200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-150400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E27" s="3">
         <v>38000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-46100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-383800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-158800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-150400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-82200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1469,48 +1527,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-8800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-19100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>54100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>15500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>800</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1547,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1586,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="E32" s="3">
         <v>13100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E33" s="3">
         <v>38000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-46100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-383800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-167600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-169500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-81500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1703,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E35" s="3">
         <v>38000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-46100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-383800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-167600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-169500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-81500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43371</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43007</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42279</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41915</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41544</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41180</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1804,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1821,73 +1907,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E41" s="3">
         <v>156500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>94700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>333000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E42" s="3">
         <v>188400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>203700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>101200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>98200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>84100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39600</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>35</v>
@@ -1898,182 +1988,197 @@
       <c r="N42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E43" s="3">
         <v>84600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>115000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>154600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>99800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>128000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E44" s="3">
         <v>82700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>107900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>136100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>79900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>73600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>54900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>52500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>813100</v>
+      </c>
+      <c r="E46" s="3">
         <v>521500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>481500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>398600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>458900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>562900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>612900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>384200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>373300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>246400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>213000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>156500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3">
         <v>15300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>35</v>
@@ -2090,90 +2195,99 @@
       <c r="M47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E48" s="3">
         <v>150500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>152200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>149900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>131000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>99200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E49" s="3">
         <v>398900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>445900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>496000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>826900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>934900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>379600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>337000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>153400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E52" s="3">
         <v>47900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>96800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1134100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1146400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1105600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1482500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1637100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1188600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>860800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>682200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>316600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>268100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>211300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,47 +2531,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E57" s="3">
         <v>28700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2449,194 +2583,209 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E59" s="3">
         <v>63400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>108700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E60" s="3">
         <v>93000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>74800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>107000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>67100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>602500</v>
+      </c>
+      <c r="E61" s="3">
         <v>528900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>681200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>684800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>687400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>678700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>576300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>335100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>343200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E62" s="3">
         <v>40500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>57300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>107000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2712,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>729100</v>
+      </c>
+      <c r="E66" s="3">
         <v>662400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>846300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>791700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>813800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>859700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>725800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>436300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>174100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,11 +3090,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>182000</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-354300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-801800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-839700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-791800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-408000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-97500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-98900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-147500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-132200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-147700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-144700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>842700</v>
+      </c>
+      <c r="E76" s="3">
         <v>471700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>313900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>668700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>777400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>462800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>424500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>247100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>199500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-144800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43371</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43007</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42279</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41915</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41544</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41180</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E81" s="3">
         <v>38000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-46100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-383800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-167600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-169500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-81500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F83" s="3">
         <v>78800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>104400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>112400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>70600</v>
       </c>
-      <c r="I83" s="3">
-        <v>54700</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>148400</v>
+      </c>
+      <c r="F89" s="3">
         <v>171400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>36300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>61100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>79200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>33700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>25300</v>
       </c>
       <c r="K89" s="3">
         <v>25300</v>
       </c>
       <c r="L89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="M89" s="3">
         <v>28900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-53000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-32800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-31300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-17000</v>
       </c>
       <c r="K91" s="3">
         <v>-17000</v>
       </c>
       <c r="L91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-107200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-33900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-67100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-337600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-94900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-207400</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3994,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3794,14 +4028,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-79100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,71 +4159,77 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>73700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>227400</v>
       </c>
-      <c r="I100" s="3">
-        <v>122400</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>302400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>35</v>
@@ -3994,46 +4243,52 @@
       <c r="N101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F102" s="3">
         <v>53900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-19200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-35400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-202900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>210700</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>63400</v>
       </c>
       <c r="K102" s="3">
         <v>63400</v>
       </c>
       <c r="L102" s="3">
+        <v>63400</v>
+      </c>
+      <c r="M102" s="3">
         <v>25900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MTSI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MTSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,205 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43007</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42279</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41915</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41544</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41180</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40816</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>648400</v>
+      </c>
+      <c r="E8" s="3">
         <v>675200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>606900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>530000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>499700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>570400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>698800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>544300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>420600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>339200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>242700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>303300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>310300</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E9" s="3">
         <v>269000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>265100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>259900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>279000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>324700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>371900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>262700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>196800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>133500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>336500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178400</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>385800</v>
+      </c>
+      <c r="E10" s="3">
         <v>406200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>341900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>270200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>220700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>245700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>326900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>281600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>203600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>142300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-33200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>131900</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,50 +880,54 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E12" s="3">
         <v>148200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>138800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>141300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>163500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>177700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>148000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>107700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>82200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>66900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>72600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36100</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,93 +967,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>284500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E15" s="3">
         <v>25600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>44900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>48300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1300</v>
       </c>
       <c r="N15" s="3">
         <v>1300</v>
       </c>
       <c r="O15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1051,92 +1076,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E17" s="3">
         <v>542500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>530300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>526600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>880100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>676900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>714900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>531100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>410500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>367000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>235000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>249600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>264400</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E18" s="3">
         <v>132700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-380400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-106500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45900</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,218 +1185,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E20" s="3">
         <v>114700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44800</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E21" s="3">
         <v>304600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-282900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>72300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67400</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11500</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>18400</v>
       </c>
       <c r="K22" s="3">
         <v>18400</v>
       </c>
       <c r="L22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E23" s="3">
         <v>243100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-423200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-155200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-196800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-39400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-24100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1404,93 +1452,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E26" s="3">
         <v>440000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-46100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-383800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-131200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-150400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E27" s="3">
         <v>440000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-383800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-158800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-150400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-82200</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,9 +1587,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1542,39 +1602,42 @@
       <c r="E29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-8800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-19100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>54100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>15500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>800</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,9 +1677,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,93 +1722,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-114700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44800</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E33" s="3">
         <v>440000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-383800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-167600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-169500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-81500</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1782,98 +1857,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E35" s="3">
         <v>440000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-383800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-167600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-169500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-81500</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43007</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42279</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41915</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41544</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41180</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40816</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1890,8 +1974,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1908,79 +1993,83 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E41" s="3">
         <v>120000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>333000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45700</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E42" s="3">
         <v>466600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>188400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>203700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>101200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>98200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>84100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39600</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>35</v>
@@ -1991,177 +2080,192 @@
       <c r="O42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E43" s="3">
         <v>101600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>115000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>154600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>99800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>128000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46200</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E44" s="3">
         <v>115000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>82700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>107900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>122800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>136100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>114900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>79900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>73600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>52500</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>761200</v>
+      </c>
+      <c r="E46" s="3">
         <v>813100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>521500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>481500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>398600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>458900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>562900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>612900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>384200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>373300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>246400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>213000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>156500</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,19 +2273,19 @@
         <v>2500</v>
       </c>
       <c r="E47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F47" s="3">
         <v>15300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>35</v>
@@ -2198,96 +2302,105 @@
       <c r="N47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E48" s="3">
         <v>149200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>152200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>149900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>131000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>99200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25400</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>390400</v>
+      </c>
+      <c r="E49" s="3">
         <v>362700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>398900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>445900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>496000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>826900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>934900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>379600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>337000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>153400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26100</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2327,9 +2440,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2369,51 +2485,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E52" s="3">
         <v>244300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>47900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>96800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2453,51 +2575,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1553200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1571800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1134100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1146400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1105600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1482500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1637100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1188600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>860800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>682200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>268100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>211300</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2514,8 +2642,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2532,260 +2661,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E57" s="3">
         <v>30700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20500</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E59" s="3">
         <v>65500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>108700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46600</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E60" s="3">
         <v>97200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>107000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>117100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>67100</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>488200</v>
+      </c>
+      <c r="E61" s="3">
         <v>602500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>528900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>681200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>684800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>687400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>678700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>576300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>335100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>343200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>57300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>107000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2825,9 +2973,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2867,9 +3018,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2909,51 +3063,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>605600</v>
+      </c>
+      <c r="E66" s="3">
         <v>729100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>662400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>846300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>791700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>813800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>859700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>725800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>436300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>453700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>174100</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2970,8 +3130,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3011,9 +3172,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3053,9 +3217,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3093,11 +3260,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>182000</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3137,51 +3307,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-262700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-354300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-801800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-839700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-791800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-408000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-147500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-147700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-144700</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3221,9 +3397,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3263,9 +3442,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3305,51 +3487,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>947600</v>
+      </c>
+      <c r="E76" s="3">
         <v>842700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>471700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>313900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>668700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>777400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>462800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>424500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>228600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>247100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>199500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-144800</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3389,98 +3577,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43007</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42279</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41915</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41544</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41180</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40816</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E81" s="3">
         <v>440000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-383800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-167600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-169500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-81500</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3497,50 +3694,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E83" s="3">
         <v>57200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>104400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70600</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10400</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3580,9 +3781,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3622,9 +3826,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3664,9 +3871,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3706,9 +3916,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3748,51 +3961,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E89" s="3">
         <v>177000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>148400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>25300</v>
       </c>
       <c r="L89" s="3">
         <v>25300</v>
       </c>
       <c r="M89" s="3">
+        <v>25300</v>
+      </c>
+      <c r="N89" s="3">
         <v>28900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32800</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3809,50 +4028,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-53000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-17000</v>
       </c>
       <c r="L91" s="3">
         <v>-17000</v>
       </c>
       <c r="M91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9800</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3892,9 +4115,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3934,51 +4160,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-182900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-107200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-337600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-94900</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-264200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3995,8 +4227,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4031,14 +4264,17 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-79100</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4078,9 +4314,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4120,9 +4359,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4162,77 +4404,83 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>227400</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>302400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E101" s="3">
-        <v>400</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>35</v>
@@ -4246,49 +4494,55 @@
       <c r="O101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>53900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-202900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>210700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>63400</v>
       </c>
       <c r="L102" s="3">
         <v>63400</v>
       </c>
       <c r="M102" s="3">
+        <v>63400</v>
+      </c>
+      <c r="N102" s="3">
         <v>25900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21700</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
